--- a/biology/Zoologie/Inséparable_masqué/Inséparable_masqué.xlsx
+++ b/biology/Zoologie/Inséparable_masqué/Inséparable_masqué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agapornis personatus
 L'Inséparable masqué (Agapornis personatus) est une espèce d'oiseau appartenant à la famille des Psittacidae. Cette perruche africaine est proche de l'Inséparable à joues noires (Agapornis nigrigenis).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure de 14,5 à 16 cm. Sa tête est de couleur noire (avec des reflets bruns). Les yeux, noirs également, sont entourés d'un large cercle orbital blanc. La gorge et le cou sont jaune citron. Le reste du plumage est vert, plus foncé sur les parties supérieures et plus clair sur les inférieures. Le bec est rouge corail.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de Tanzanie, cette espèce vit en couple ou en groupe pouvant atteindre une centaine d'individus.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Comportement social : à maintenir en groupe ou en couple
 Logement : volière intérieure ou extérieure, ou même dans une grande cage d'élevage, cage plus large que haute, grillage solide, pas de végétation
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Mutations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oiseaux comportant des traces de suffusions rouges sur le collier jaune sont la preuve qu'il y a eu des hybridations dans le passé, avec d'autres espèces d'inséparables, en particulier avec l'Inséparable de Fischer, dans le but de faire passer des mutations d'une espèce à une autre.
 Lors des accouplements entre les différentes couleurs, on n'est jamais certain des résultats à venir en raison de l'existence de très nombreux oiseaux porteurs de mutations masquées car récessives.
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +676,9 @@
           <t>Cri et chant</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inséparables masqués produisent des pépiements très variés qui sont généralement forts, aigus et saccadés. Bien que souvent brefs et sans mélodies (cri), un inséparable masqué est capable de produire, dans un contexte plus calme, un chant doux et plus mélodieux.
 Certaines actions qui peuvent être irritable pour l'oiseau lui feront parfois faire des grognements.
@@ -672,7 +694,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,7 +712,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inséparable masqué est un oiseau très social et sociable et il est généralement en couple. En captivité, certains peuvent s'attacher à des humains faute d'autres inséparables masqués. De ce fait, ils apprécient beaucoup quand ils se sentent comme centre d'attention et ils peuvent provoquer cette attention en criant ou en mordant.
 La majorité de ces oiseaux n'aiment pas se faire flatter ou se faire prendre dans une main surtout quand ils sont bien éveillés. La seule fois où ils peuvent accepter de se faire flatter est lorsqu'ils sont fatigués. Dans ces cas, ils ne voudront se faire flatter que la tête, endroit où il leur est difficile de se gratter.
@@ -707,7 +731,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -725,7 +749,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup d'inséparables aiment se baigner pour se rafraichir ou pour se laver.
 Certains peuvent apprendre des tours comme tourner sur un perchoir. Ces tours sont bien retenus par les inséparables masqués lorsqu'ils sont jeunes et quand ils reçoivent une récompense en échange de l'accomplissement du tour.
@@ -739,7 +765,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -757,7 +783,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inséparables masqués ne se reproduisent qu'une ou deux fois par an. La femelle pond 3 à 7 œufs par couvaison.
 </t>
@@ -770,7 +798,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -788,7 +816,9 @@
           <t>Incubation, éclosion et enfance</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La période d'incubation dure environ 23 jours où la femelle va couver les œufs. Ceux-ci ont une taille d'environ 19 millimètres.
 L'oisillon, après 23 jours, va percer la coquille de l’œuf avec son bec. Il va éclore.
@@ -803,7 +833,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_masqu%C3%A9</t>
+          <t>Inséparable_masqué</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -823,8 +853,13 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Élevage des oisillons
-L'élevage à la main (EAM) n'a pas pour seul objectif l'apprivoisement des oiseaux. Cela peut être une nécessité dans les cas suivants : abandon des œufs, des poussins, mauvais parent ou mort d'un des deux. C'est une tâche qui n'est pas facile, l'éleveur tient la vie d'un oisillon entre ses mains et c'est assez coûteux. D'ailleurs, les oiseaux élevés ainsi sont nettement plus chers que les autres. L'imprégnation à l'homme dépend de la durée de nourrissage et du temps consacré à l'oiseau (manipulations).
+          <t>Élevage des oisillons</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élevage à la main (EAM) n'a pas pour seul objectif l'apprivoisement des oiseaux. Cela peut être une nécessité dans les cas suivants : abandon des œufs, des poussins, mauvais parent ou mort d'un des deux. C'est une tâche qui n'est pas facile, l'éleveur tient la vie d'un oisillon entre ses mains et c'est assez coûteux. D'ailleurs, les oiseaux élevés ainsi sont nettement plus chers que les autres. L'imprégnation à l'homme dépend de la durée de nourrissage et du temps consacré à l'oiseau (manipulations).
 Le matériel
 Le nid
 De préférence en plastique avec comme litière du sopalin. Une lampe infrarouge ou un cordon chauffant pour le réchauffer. Attention aux brûlures. Un bac d'eau pour maintenir une bonne hygrométrie.
@@ -839,8 +874,43 @@
 Durant les premiers jours de vie, la bouillie doit être très liquide et diluée avec la solution ringer lactate ou glucosé pour le réhydrater. Il faut s'assurer que l'aliment n'est pas trop chaud (35⁰C environ). Il est conseillé les deux premiers jours de nourrir toutes les deux heures y compris la nuit. La température du nid sera de 36 °C et le taux d'humidité 60 %.
 À l'ouverture des yeux, 6 repas par jour avec au moins 6 heures sans manger.(la nuit) Quand l'oiseau est plumé, 4 repas par jour avec une température du nid de 25 °C.
 Le sevrage ne commence que lorsque l'oiseau vole. L'objectif étant de l'inciter à manger seul, il faut réduire progressivement les repas. En gardant toujours le repas du soir, l'oiseau se couche avec le ventre plein. Il est déconseillé de le laisser seul pendant cette période. La présence de congénères de la même espèce est favorable, voire nécessaire, au juvénile qui par imitation copiera leur comportement de subsistance.
-Alimentation
-Les inséparables masqués sont granivores et herbivores. Pour mieux digérer les graines, il doit avaler un peu de gravier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Inséparable_masqué</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ins%C3%A9parable_masqu%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Élevage des oisillons à la main et alimentation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inséparables masqués sont granivores et herbivores. Pour mieux digérer les graines, il doit avaler un peu de gravier.
 </t>
         </is>
       </c>
